--- a/NCMCY35_0.5_1.xlsx_fitting_results.xlsx
+++ b/NCMCY35_0.5_1.xlsx_fitting_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>W</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,31 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02798495775666916</v>
+        <v>0.02687209263099991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005209235842483052</v>
+        <v>0.002541286071012739</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5451451178311061</v>
+        <v>3.413156692522394</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2179051286839985</v>
+        <v>0.8779171638335592</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004663525984847918</v>
+        <v>0.07346474955672917</v>
       </c>
       <c r="G2" t="n">
-        <v>5.882373986956593</v>
+        <v>299.9987680643423</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5769777444145086</v>
+        <v>7.777606439633627e-11</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003152685984963407</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6.018121539409963e-07</v>
+        <v>0.003319799320868578</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02947120039851452</v>
+        <v>0.03067643884001108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002346091120767345</v>
+        <v>0.001749815397684635</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4622122453914919</v>
+        <v>1.503851428015405</v>
       </c>
       <c r="E3" t="n">
-        <v>0.945772286821049</v>
+        <v>0.9999999999999925</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005241995514365407</v>
+        <v>0.004402721756704927</v>
       </c>
       <c r="G3" t="n">
-        <v>5.527317119508262</v>
+        <v>6.482382095631881</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8991694526045255</v>
+        <v>0.9646074205750915</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003250293257645409</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.955031831309444e-07</v>
+        <v>0.001664070350505626</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03014126064098299</v>
+        <v>0.03085277468625008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002199930723415068</v>
+        <v>0.006808702310185558</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5171465020124395</v>
+        <v>7.847489684723141</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999969619</v>
+        <v>0.9239155099543521</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007506177140695305</v>
+        <v>0.001746255765119275</v>
       </c>
       <c r="G4" t="n">
-        <v>5.962438595811954</v>
+        <v>1.459886732514908</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9183022742452455</v>
+        <v>0.9999999999999836</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003355625992347191</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.781614613257676e-07</v>
+        <v>0.001750375212780709</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03022664568346815</v>
+        <v>0.03101029670703196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002351972728950998</v>
+        <v>0.009083779409967699</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5100066994131798</v>
+        <v>8.15191368105242</v>
       </c>
       <c r="E5" t="n">
-        <v>0.991891660030583</v>
+        <v>0.9160531648699886</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00998089624952918</v>
+        <v>0.001840814956608164</v>
       </c>
       <c r="G5" t="n">
-        <v>6.507104549429214</v>
+        <v>1.598986489098676</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9049239319579954</v>
+        <v>0.9813518768076919</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003459877048978514</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.752154378477414e-07</v>
+        <v>0.001832375554632553</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03026440452288973</v>
+        <v>0.03116761973283535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00279055250119921</v>
+        <v>0.01133001369555686</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7732731381764837</v>
+        <v>8.414224531736716</v>
       </c>
       <c r="E6" t="n">
-        <v>0.912934710878213</v>
+        <v>0.9152969473886522</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01222598031371679</v>
+        <v>0.002020122680052813</v>
       </c>
       <c r="G6" t="n">
-        <v>6.853583688215569</v>
+        <v>1.894751867628526</v>
       </c>
       <c r="H6" t="n">
-        <v>0.912194892201621</v>
+        <v>0.9445841056735166</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003618317063547163</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.87397150165767e-07</v>
+        <v>0.001930346717358466</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03042894961524495</v>
+        <v>0.03130506965677865</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002927813381356609</v>
+        <v>0.01354055185981813</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8652585759339388</v>
+        <v>8.617359813362343</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8977811501586964</v>
+        <v>0.9117286134364068</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01446677449717451</v>
+        <v>0.002072485800300444</v>
       </c>
       <c r="G7" t="n">
-        <v>7.146423813710527</v>
+        <v>1.806098446091561</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9122637058153609</v>
+        <v>0.9464154292857146</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003714511833044803</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.847808717577869e-07</v>
+        <v>0.001995780227908473</v>
       </c>
     </row>
     <row r="8">
@@ -696,31 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03054188866989354</v>
+        <v>0.0314519579075317</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003150901025420111</v>
+        <v>0.01592724888300431</v>
       </c>
       <c r="D8" t="n">
-        <v>1.017933323445019</v>
+        <v>8.838685233624171</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8676165132975352</v>
+        <v>0.9096895643914233</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01695210867168021</v>
+        <v>0.002189944996121035</v>
       </c>
       <c r="G8" t="n">
-        <v>7.412916686412187</v>
+        <v>1.951628285594564</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9119307089108682</v>
+        <v>0.9258806633790788</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003840789835085969</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.883213188771891e-07</v>
+        <v>0.002079699913722855</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +704,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03063484817559215</v>
+        <v>0.03160682931548649</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003381712700584389</v>
+        <v>0.01856861681074552</v>
       </c>
       <c r="D9" t="n">
-        <v>1.14117377989615</v>
+        <v>8.964774165136459</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8433973243616371</v>
+        <v>0.908237182177951</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01967195264153161</v>
+        <v>0.002260468816427312</v>
       </c>
       <c r="G9" t="n">
-        <v>7.599420290514014</v>
+        <v>1.921969075652858</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9126247565888562</v>
+        <v>0.9207244832114606</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003970842263448339</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.869234139629004e-07</v>
+        <v>0.002164516619042085</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03080727550073207</v>
+        <v>0.03174331342775359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003450434700342982</v>
+        <v>0.02101998205146658</v>
       </c>
       <c r="D10" t="n">
-        <v>1.153933953793431</v>
+        <v>9.059614353296357</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8439299843548272</v>
+        <v>0.909881708229267</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02230432208388212</v>
+        <v>0.002349513120303014</v>
       </c>
       <c r="G10" t="n">
-        <v>7.73065169643454</v>
+        <v>1.983548403726446</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9130849652912246</v>
+        <v>0.9086335238004571</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004069451185549848</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.834180066700297e-07</v>
+        <v>0.002239657934914136</v>
       </c>
     </row>
     <row r="11">
@@ -798,31 +766,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03086550329986484</v>
+        <v>0.03187902438559172</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003705063470448773</v>
+        <v>0.02351929177452906</v>
       </c>
       <c r="D11" t="n">
-        <v>1.336821536445477</v>
+        <v>9.167634234944794</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8125163568220902</v>
+        <v>0.9114651130590385</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02491900579209216</v>
+        <v>0.002444533583227748</v>
       </c>
       <c r="G11" t="n">
-        <v>7.85605052574598</v>
+        <v>2.068314184612456</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9157654791035106</v>
+        <v>0.8955821158509167</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00423004682987819</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.868302843333706e-07</v>
+        <v>0.002342742880941853</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +797,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03101195906038727</v>
+        <v>0.03202754297102873</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003798103790525146</v>
+        <v>0.02657330354704347</v>
       </c>
       <c r="D12" t="n">
-        <v>1.358676157068525</v>
+        <v>9.267406369104151</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8078569806187935</v>
+        <v>0.9100962426284386</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02819019273986583</v>
+        <v>0.002502192201418733</v>
       </c>
       <c r="G12" t="n">
-        <v>7.997017517172102</v>
+        <v>2.055817146675155</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9134086124656629</v>
+        <v>0.8904094044128794</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0043185818490024</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.866758097735069e-07</v>
+        <v>0.002415913876700146</v>
       </c>
     </row>
     <row r="13">
@@ -866,31 +828,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03109403535814132</v>
+        <v>0.03206378721059316</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003971284596044901</v>
+        <v>0.003077823032862168</v>
       </c>
       <c r="D13" t="n">
-        <v>1.454159808806785</v>
+        <v>3.557676367026931</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7913345277832465</v>
+        <v>0.7910111657764763</v>
       </c>
       <c r="F13" t="n">
-        <v>0.031384657452298</v>
+        <v>0.03007812452759853</v>
       </c>
       <c r="G13" t="n">
-        <v>8.050950671736885</v>
+        <v>8.618388803064867</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9152793217059402</v>
+        <v>0.9235934411683773</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0044671550596881</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.86390902422659e-07</v>
+        <v>0.002404932222882599</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +859,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03125373558780668</v>
+        <v>2.170558353780304e-22</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004002651166701733</v>
+        <v>0.0603322992583081</v>
       </c>
       <c r="D14" t="n">
-        <v>1.423493465702768</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E14" t="n">
-        <v>0.796086994871995</v>
+        <v>0.04573393875952936</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03447309382658192</v>
+        <v>0.03038990265873151</v>
       </c>
       <c r="G14" t="n">
-        <v>8.151490903684659</v>
+        <v>9.305903955694765</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9131292507701743</v>
+        <v>0.9392176202011496</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004558578960485117</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.828231951414029e-07</v>
+        <v>0.002209102060303008</v>
       </c>
     </row>
     <row r="15">
@@ -934,31 +890,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03133717232774168</v>
+        <v>2.76792447121915e-16</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004180320648256743</v>
+        <v>0.06079698851408132</v>
       </c>
       <c r="D15" t="n">
-        <v>1.51139097671737</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7801706554852024</v>
+        <v>0.04551956419755496</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03762093415943419</v>
+        <v>0.033406751579854</v>
       </c>
       <c r="G15" t="n">
-        <v>8.231638240029445</v>
+        <v>9.355918950868524</v>
       </c>
       <c r="H15" t="n">
-        <v>0.914076908951422</v>
+        <v>0.9383716115483007</v>
       </c>
       <c r="I15" t="n">
-        <v>0.004697705675273226</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.840387017225473e-07</v>
+        <v>0.00230634613326842</v>
       </c>
     </row>
     <row r="16">
@@ -968,31 +921,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0313863912680358</v>
+        <v>2.792076887791167e-16</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00435036504122901</v>
+        <v>0.06123873363532436</v>
       </c>
       <c r="D16" t="n">
-        <v>1.615441203932844</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7632239180610156</v>
+        <v>0.04543531009542585</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04061720569090262</v>
+        <v>0.03620612609203035</v>
       </c>
       <c r="G16" t="n">
-        <v>8.313152459691674</v>
+        <v>9.420117261924799</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9144514738805252</v>
+        <v>0.9382543339377877</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004859441848682314</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.835529621575176e-07</v>
+        <v>0.002419553256969126</v>
       </c>
     </row>
     <row r="17">
@@ -1002,31 +952,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03150714705259697</v>
+        <v>1.584627909064486e-18</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004414392114515614</v>
+        <v>0.06167826913989181</v>
       </c>
       <c r="D17" t="n">
-        <v>1.637767763787641</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7590724511822332</v>
+        <v>0.0453160944245844</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04404730382400057</v>
+        <v>0.03934805530775085</v>
       </c>
       <c r="G17" t="n">
-        <v>8.370225772442543</v>
+        <v>9.455492823481201</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9133783413292889</v>
+        <v>0.9375454702527772</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005007266124694188</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.832749883834808e-07</v>
+        <v>0.002535105574519953</v>
       </c>
     </row>
     <row r="18">
@@ -1036,31 +983,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03163637226051348</v>
+        <v>0.03268003795027651</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004458417372091178</v>
+        <v>0.003304103946135454</v>
       </c>
       <c r="D18" t="n">
-        <v>1.647237664375577</v>
+        <v>3.304555072873756</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7587600788647142</v>
+        <v>0.7844571719117758</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04692791524277611</v>
+        <v>0.04510050370316487</v>
       </c>
       <c r="G18" t="n">
-        <v>8.404399799087106</v>
+        <v>8.936212088910832</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9152022178258769</v>
+        <v>0.9209600519487612</v>
       </c>
       <c r="I18" t="n">
-        <v>0.005126554084056559</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.816422204517777e-07</v>
+        <v>0.002810493922429048</v>
       </c>
     </row>
     <row r="19">
@@ -1070,31 +1014,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03174842776701062</v>
+        <v>7.199745020562611e-17</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004534352139980353</v>
+        <v>0.06253467709044223</v>
       </c>
       <c r="D19" t="n">
-        <v>1.637609462015968</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7554076231915127</v>
+        <v>0.04500075489136025</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05131397105826262</v>
+        <v>0.04598480818127173</v>
       </c>
       <c r="G19" t="n">
-        <v>8.457574176327542</v>
+        <v>9.506611708243604</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9132570007700195</v>
+        <v>0.9381492828751768</v>
       </c>
       <c r="I19" t="n">
-        <v>0.005314854207766593</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.829221825995772e-07</v>
+        <v>0.002779279150519412</v>
       </c>
     </row>
     <row r="20">
@@ -1104,31 +1045,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03185967553053443</v>
+        <v>8.188150209577266e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004592535302509396</v>
+        <v>0.06298408959223231</v>
       </c>
       <c r="D20" t="n">
-        <v>1.651197498162916</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7530575772206082</v>
+        <v>0.04496520404431691</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05480929300340651</v>
+        <v>0.04918848382100153</v>
       </c>
       <c r="G20" t="n">
-        <v>8.525622086154319</v>
+        <v>9.549349973812308</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9118817610404368</v>
+        <v>0.937150661644696</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005285013322149545</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.811421209307989e-07</v>
+        <v>0.002804492546219651</v>
       </c>
     </row>
     <row r="21">
@@ -1138,31 +1076,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03198805205038606</v>
+        <v>0.0330351990057022</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004643724759622518</v>
+        <v>0.003434974797482209</v>
       </c>
       <c r="D21" t="n">
-        <v>1.691886529876791</v>
+        <v>3.329423351883259</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7493906821467397</v>
+        <v>0.7730137919922224</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05855048393579574</v>
+        <v>0.05614291102906827</v>
       </c>
       <c r="G21" t="n">
-        <v>8.556805271634726</v>
+        <v>9.078289278315589</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9127553998148862</v>
+        <v>0.9190441461829953</v>
       </c>
       <c r="I21" t="n">
-        <v>0.005497599133738278</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5.825051614754457e-07</v>
+        <v>0.00306558606589165</v>
       </c>
     </row>
     <row r="22">
@@ -1172,31 +1107,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.03207183764208965</v>
+        <v>3.655850365913153e-16</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004729733458049665</v>
+        <v>0.06372058823761917</v>
       </c>
       <c r="D22" t="n">
-        <v>1.727274694799243</v>
+        <v>9.999999999999996</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7436149781416898</v>
+        <v>0.04460189518661378</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0620687540095118</v>
+        <v>0.05575814127898206</v>
       </c>
       <c r="G22" t="n">
-        <v>8.594022562330567</v>
+        <v>9.606402687616267</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9133208514853923</v>
+        <v>0.9389384872102755</v>
       </c>
       <c r="I22" t="n">
-        <v>0.005719668541869807</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5.804095537850071e-07</v>
+        <v>0.003119693731582571</v>
       </c>
     </row>
     <row r="23">
@@ -1206,31 +1138,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03212020970239134</v>
+        <v>0.03323776345854419</v>
       </c>
       <c r="C23" t="n">
-        <v>0.004923354418503465</v>
+        <v>0.00357501376129721</v>
       </c>
       <c r="D23" t="n">
-        <v>1.889209792497186</v>
+        <v>3.523982124548175</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7250663106394539</v>
+        <v>0.7574272460084047</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06572150652442929</v>
+        <v>0.06291328918634856</v>
       </c>
       <c r="G23" t="n">
-        <v>8.623922478520434</v>
+        <v>9.159359558247299</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9158180058709545</v>
+        <v>0.9220834697648876</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005918667705169162</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.80887514946984e-07</v>
+        <v>0.003326008499049944</v>
       </c>
     </row>
     <row r="24">
@@ -1240,31 +1169,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.03227963418669537</v>
+        <v>4.174945783509048e-16</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004860362923567618</v>
+        <v>0.06458967433192656</v>
       </c>
       <c r="D24" t="n">
-        <v>1.751931873163407</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7372251797232524</v>
+        <v>0.04440787347809028</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07084754844871451</v>
+        <v>0.06375097964847858</v>
       </c>
       <c r="G24" t="n">
-        <v>8.697090322085236</v>
+        <v>9.667160348104082</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9102810079437701</v>
+        <v>0.9364408207020879</v>
       </c>
       <c r="I24" t="n">
-        <v>0.005717740396373042</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.802391382115471e-07</v>
+        <v>0.003223473591381367</v>
       </c>
     </row>
     <row r="25">
@@ -1274,31 +1200,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.03234467813485621</v>
+        <v>0.03349952862257865</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004931306962328563</v>
+        <v>0.003511208342081341</v>
       </c>
       <c r="D25" t="n">
-        <v>1.774930508888874</v>
+        <v>3.172195170928665</v>
       </c>
       <c r="E25" t="n">
-        <v>0.730935283509381</v>
+        <v>0.7724427684422202</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07444535612737178</v>
+        <v>0.07126608891305722</v>
       </c>
       <c r="G25" t="n">
-        <v>8.732835391883176</v>
+        <v>9.243112112151369</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9095938076497279</v>
+        <v>0.9158898992181382</v>
       </c>
       <c r="I25" t="n">
-        <v>0.005907699918550034</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5.784387529374039e-07</v>
+        <v>0.003358812264574589</v>
       </c>
     </row>
     <row r="26">
@@ -1308,31 +1231,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03244842922744785</v>
+        <v>1.634486168787332e-18</v>
       </c>
       <c r="C26" t="n">
-        <v>0.005032357309436619</v>
+        <v>0.06529961870387636</v>
       </c>
       <c r="D26" t="n">
-        <v>1.868174852759489</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7225940675691257</v>
+        <v>0.04398156882322324</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07841810379208553</v>
+        <v>0.07059898924354009</v>
       </c>
       <c r="G26" t="n">
-        <v>8.762903216359613</v>
+        <v>9.719514472062315</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9102698675865309</v>
+        <v>0.9364310391041789</v>
       </c>
       <c r="I26" t="n">
-        <v>0.005988065748165568</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5.785275250594877e-07</v>
+        <v>0.003457110810210439</v>
       </c>
     </row>
     <row r="27">
@@ -1342,31 +1262,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03253992355264955</v>
+        <v>0.03374505849330467</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00517887418717769</v>
+        <v>0.003666454571562239</v>
       </c>
       <c r="D27" t="n">
-        <v>1.930828273051393</v>
+        <v>3.397974760305499</v>
       </c>
       <c r="E27" t="n">
-        <v>0.710649724238581</v>
+        <v>0.753773267745884</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08267380761924799</v>
+        <v>0.07894641411547082</v>
       </c>
       <c r="G27" t="n">
-        <v>8.771895021192408</v>
+        <v>9.290619069809093</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9105314573525438</v>
+        <v>0.917408250565128</v>
       </c>
       <c r="I27" t="n">
-        <v>0.006228938793156274</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5.812634378593424e-07</v>
+        <v>0.003583623878540406</v>
       </c>
     </row>
     <row r="28">
@@ -1376,31 +1293,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.03278564823065527</v>
+        <v>0.03414831957621674</v>
       </c>
       <c r="C28" t="n">
-        <v>0.005074201702764708</v>
+        <v>0.07923056712816413</v>
       </c>
       <c r="D28" t="n">
-        <v>1.751677134173786</v>
+        <v>9.999999999991951</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7275112274839328</v>
+        <v>0.9122274240613018</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08657975217846478</v>
+        <v>0.002754002949372549</v>
       </c>
       <c r="G28" t="n">
-        <v>8.797419839264833</v>
+        <v>1.144174958668768</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9055040662356598</v>
+        <v>0.9371242327473481</v>
       </c>
       <c r="I28" t="n">
-        <v>0.006045701753858952</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5.766103495235706e-07</v>
+        <v>0.003939753659917123</v>
       </c>
     </row>
     <row r="29">
@@ -1410,31 +1324,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.03292648743065887</v>
+        <v>0.03440784957201757</v>
       </c>
       <c r="C29" t="n">
-        <v>0.005402201859226535</v>
+        <v>0.0825211200858461</v>
       </c>
       <c r="D29" t="n">
-        <v>2.026832797367099</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6983266547663698</v>
+        <v>0.9164188016603469</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09024412236777682</v>
+        <v>0.002718209902833142</v>
       </c>
       <c r="G29" t="n">
-        <v>8.736607255691874</v>
+        <v>1.010504728943143</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9113232336951345</v>
+        <v>0.9530809685381141</v>
       </c>
       <c r="I29" t="n">
-        <v>0.006685703319145401</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.789301470781249e-07</v>
+        <v>0.004275360841262932</v>
       </c>
     </row>
   </sheetData>
